--- a/Ak_Bars_stat.xlsx
+++ b/Ak_Bars_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>№</t>
   </si>
@@ -224,6 +224,129 @@
   </si>
   <si>
     <t xml:space="preserve"> з</t>
+  </si>
+  <si>
+    <t>00:18:18</t>
+  </si>
+  <si>
+    <t>00:15:31</t>
+  </si>
+  <si>
+    <t>00:18:52</t>
+  </si>
+  <si>
+    <t>00:17:10</t>
+  </si>
+  <si>
+    <t>00:19:03</t>
+  </si>
+  <si>
+    <t>00:14:27</t>
+  </si>
+  <si>
+    <t>00:14:21</t>
+  </si>
+  <si>
+    <t>00:16:26</t>
+  </si>
+  <si>
+    <t>00:14:00</t>
+  </si>
+  <si>
+    <t>00:12:42</t>
+  </si>
+  <si>
+    <t>00:16:50</t>
+  </si>
+  <si>
+    <t>00:13:55</t>
+  </si>
+  <si>
+    <t>00:13:14</t>
+  </si>
+  <si>
+    <t>00:10:49</t>
+  </si>
+  <si>
+    <t>00:16:36</t>
+  </si>
+  <si>
+    <t>00:16:58</t>
+  </si>
+  <si>
+    <t>00:11:11</t>
+  </si>
+  <si>
+    <t>00:16:57</t>
+  </si>
+  <si>
+    <t>00:10:39</t>
+  </si>
+  <si>
+    <t>00:08:17</t>
+  </si>
+  <si>
+    <t>00:19:25</t>
+  </si>
+  <si>
+    <t>00:12:47</t>
+  </si>
+  <si>
+    <t>00:16:31</t>
+  </si>
+  <si>
+    <t>00:15:55</t>
+  </si>
+  <si>
+    <t>00:10:12</t>
+  </si>
+  <si>
+    <t>00:17:14</t>
+  </si>
+  <si>
+    <t>00:13:37</t>
+  </si>
+  <si>
+    <t>00:09:47</t>
+  </si>
+  <si>
+    <t>00:11:46</t>
+  </si>
+  <si>
+    <t>00:17:39</t>
+  </si>
+  <si>
+    <t>00:06:46</t>
+  </si>
+  <si>
+    <t>00:08:43</t>
+  </si>
+  <si>
+    <t>00:03:42</t>
+  </si>
+  <si>
+    <t>00:13:47</t>
+  </si>
+  <si>
+    <t>00:12:03</t>
+  </si>
+  <si>
+    <t>00:01:07</t>
+  </si>
+  <si>
+    <t>00:04:14</t>
+  </si>
+  <si>
+    <t>00:08:53</t>
+  </si>
+  <si>
+    <t>00:14:34</t>
+  </si>
+  <si>
+    <t>00:11:00</t>
+  </si>
+  <si>
+    <t>00:00:04</t>
   </si>
 </sst>
 </file>
@@ -737,8 +860,8 @@
       <c r="W2">
         <v>41</v>
       </c>
-      <c r="X2">
-        <v>1098</v>
+      <c r="X2" t="s">
+        <v>70</v>
       </c>
       <c r="Y2">
         <v>26.6</v>
@@ -817,8 +940,8 @@
       <c r="W3">
         <v>28</v>
       </c>
-      <c r="X3">
-        <v>931</v>
+      <c r="X3" t="s">
+        <v>71</v>
       </c>
       <c r="Y3">
         <v>23.5</v>
@@ -897,8 +1020,8 @@
       <c r="W4">
         <v>31</v>
       </c>
-      <c r="X4">
-        <v>1132</v>
+      <c r="X4" t="s">
+        <v>72</v>
       </c>
       <c r="Y4">
         <v>26.8</v>
@@ -977,8 +1100,8 @@
       <c r="W5">
         <v>15</v>
       </c>
-      <c r="X5">
-        <v>1030</v>
+      <c r="X5" t="s">
+        <v>73</v>
       </c>
       <c r="Y5">
         <v>24.6</v>
@@ -1057,8 +1180,8 @@
       <c r="W6">
         <v>42</v>
       </c>
-      <c r="X6">
-        <v>1143</v>
+      <c r="X6" t="s">
+        <v>74</v>
       </c>
       <c r="Y6">
         <v>26.8</v>
@@ -1137,8 +1260,8 @@
       <c r="W7">
         <v>19</v>
       </c>
-      <c r="X7">
-        <v>867</v>
+      <c r="X7" t="s">
+        <v>75</v>
       </c>
       <c r="Y7">
         <v>21.1</v>
@@ -1217,8 +1340,8 @@
       <c r="W8">
         <v>12</v>
       </c>
-      <c r="X8">
-        <v>861</v>
+      <c r="X8" t="s">
+        <v>76</v>
       </c>
       <c r="Y8">
         <v>20.7</v>
@@ -1297,8 +1420,8 @@
       <c r="W9">
         <v>25</v>
       </c>
-      <c r="X9">
-        <v>986</v>
+      <c r="X9" t="s">
+        <v>77</v>
       </c>
       <c r="Y9">
         <v>25.5</v>
@@ -1377,8 +1500,8 @@
       <c r="W10">
         <v>22</v>
       </c>
-      <c r="X10">
-        <v>840</v>
+      <c r="X10" t="s">
+        <v>78</v>
       </c>
       <c r="Y10">
         <v>21.3</v>
@@ -1457,8 +1580,8 @@
       <c r="W11">
         <v>16</v>
       </c>
-      <c r="X11">
-        <v>762</v>
+      <c r="X11" t="s">
+        <v>79</v>
       </c>
       <c r="Y11">
         <v>19.1</v>
@@ -1537,8 +1660,8 @@
       <c r="W12">
         <v>25</v>
       </c>
-      <c r="X12">
-        <v>1010</v>
+      <c r="X12" t="s">
+        <v>80</v>
       </c>
       <c r="Y12">
         <v>26.1</v>
@@ -1617,8 +1740,8 @@
       <c r="W13">
         <v>23</v>
       </c>
-      <c r="X13">
-        <v>835</v>
+      <c r="X13" t="s">
+        <v>81</v>
       </c>
       <c r="Y13">
         <v>21.8</v>
@@ -1697,8 +1820,8 @@
       <c r="W14">
         <v>22</v>
       </c>
-      <c r="X14">
-        <v>794</v>
+      <c r="X14" t="s">
+        <v>82</v>
       </c>
       <c r="Y14">
         <v>20.7</v>
@@ -1777,8 +1900,8 @@
       <c r="W15">
         <v>19</v>
       </c>
-      <c r="X15">
-        <v>649</v>
+      <c r="X15" t="s">
+        <v>83</v>
       </c>
       <c r="Y15">
         <v>17.9</v>
@@ -1857,8 +1980,8 @@
       <c r="W16">
         <v>6</v>
       </c>
-      <c r="X16">
-        <v>996</v>
+      <c r="X16" t="s">
+        <v>84</v>
       </c>
       <c r="Y16">
         <v>23</v>
@@ -1937,8 +2060,8 @@
       <c r="W17">
         <v>14</v>
       </c>
-      <c r="X17">
-        <v>1018</v>
+      <c r="X17" t="s">
+        <v>85</v>
       </c>
       <c r="Y17">
         <v>24.1</v>
@@ -2017,8 +2140,8 @@
       <c r="W18">
         <v>6</v>
       </c>
-      <c r="X18">
-        <v>671</v>
+      <c r="X18" t="s">
+        <v>86</v>
       </c>
       <c r="Y18">
         <v>18.5</v>
@@ -2097,8 +2220,8 @@
       <c r="W19">
         <v>45</v>
       </c>
-      <c r="X19">
-        <v>1017</v>
+      <c r="X19" t="s">
+        <v>87</v>
       </c>
       <c r="Y19">
         <v>25</v>
@@ -2177,8 +2300,8 @@
       <c r="W20">
         <v>13</v>
       </c>
-      <c r="X20">
-        <v>639</v>
+      <c r="X20" t="s">
+        <v>88</v>
       </c>
       <c r="Y20">
         <v>17.9</v>
@@ -2257,8 +2380,8 @@
       <c r="W21">
         <v>9</v>
       </c>
-      <c r="X21">
-        <v>497</v>
+      <c r="X21" t="s">
+        <v>89</v>
       </c>
       <c r="Y21">
         <v>13.4</v>
@@ -2337,8 +2460,8 @@
       <c r="W22">
         <v>27</v>
       </c>
-      <c r="X22">
-        <v>840</v>
+      <c r="X22" t="s">
+        <v>78</v>
       </c>
       <c r="Y22">
         <v>20.8</v>
@@ -2417,8 +2540,8 @@
       <c r="W23">
         <v>13</v>
       </c>
-      <c r="X23">
-        <v>1165</v>
+      <c r="X23" t="s">
+        <v>90</v>
       </c>
       <c r="Y23">
         <v>27.5</v>
@@ -2497,8 +2620,8 @@
       <c r="W24">
         <v>45</v>
       </c>
-      <c r="X24">
-        <v>767</v>
+      <c r="X24" t="s">
+        <v>91</v>
       </c>
       <c r="Y24">
         <v>20.2</v>
@@ -2577,8 +2700,8 @@
       <c r="W25">
         <v>40</v>
       </c>
-      <c r="X25">
-        <v>991</v>
+      <c r="X25" t="s">
+        <v>92</v>
       </c>
       <c r="Y25">
         <v>25.1</v>
@@ -2657,8 +2780,8 @@
       <c r="W26">
         <v>42</v>
       </c>
-      <c r="X26">
-        <v>955</v>
+      <c r="X26" t="s">
+        <v>93</v>
       </c>
       <c r="Y26">
         <v>24.8</v>
@@ -2737,8 +2860,8 @@
       <c r="W27">
         <v>3</v>
       </c>
-      <c r="X27">
-        <v>612</v>
+      <c r="X27" t="s">
+        <v>94</v>
       </c>
       <c r="Y27">
         <v>17.6</v>
@@ -2817,8 +2940,8 @@
       <c r="W28">
         <v>48</v>
       </c>
-      <c r="X28">
-        <v>1034</v>
+      <c r="X28" t="s">
+        <v>95</v>
       </c>
       <c r="Y28">
         <v>24.6</v>
@@ -2897,8 +3020,8 @@
       <c r="W29">
         <v>23</v>
       </c>
-      <c r="X29">
-        <v>817</v>
+      <c r="X29" t="s">
+        <v>96</v>
       </c>
       <c r="Y29">
         <v>21.6</v>
@@ -2977,8 +3100,8 @@
       <c r="W30">
         <v>8</v>
       </c>
-      <c r="X30">
-        <v>587</v>
+      <c r="X30" t="s">
+        <v>97</v>
       </c>
       <c r="Y30">
         <v>15.5</v>
@@ -3057,8 +3180,8 @@
       <c r="W31">
         <v>2</v>
       </c>
-      <c r="X31">
-        <v>706</v>
+      <c r="X31" t="s">
+        <v>98</v>
       </c>
       <c r="Y31">
         <v>17.2</v>
@@ -3137,8 +3260,8 @@
       <c r="W32">
         <v>9</v>
       </c>
-      <c r="X32">
-        <v>1059</v>
+      <c r="X32" t="s">
+        <v>99</v>
       </c>
       <c r="Y32">
         <v>24.4</v>
@@ -3217,8 +3340,8 @@
       <c r="W33">
         <v>1</v>
       </c>
-      <c r="X33">
-        <v>406</v>
+      <c r="X33" t="s">
+        <v>100</v>
       </c>
       <c r="Y33">
         <v>11.8</v>
@@ -3297,8 +3420,8 @@
       <c r="W34">
         <v>3</v>
       </c>
-      <c r="X34">
-        <v>523</v>
+      <c r="X34" t="s">
+        <v>101</v>
       </c>
       <c r="Y34">
         <v>13.8</v>
@@ -3377,8 +3500,8 @@
       <c r="W35">
         <v>2</v>
       </c>
-      <c r="X35">
-        <v>222</v>
+      <c r="X35" t="s">
+        <v>102</v>
       </c>
       <c r="Y35">
         <v>6.7</v>
@@ -3457,8 +3580,8 @@
       <c r="W36">
         <v>8</v>
       </c>
-      <c r="X36">
-        <v>827</v>
+      <c r="X36" t="s">
+        <v>103</v>
       </c>
       <c r="Y36">
         <v>23</v>
@@ -3537,8 +3660,8 @@
       <c r="W37">
         <v>1</v>
       </c>
-      <c r="X37">
-        <v>723</v>
+      <c r="X37" t="s">
+        <v>104</v>
       </c>
       <c r="Y37">
         <v>18</v>
@@ -3617,8 +3740,8 @@
       <c r="W38">
         <v>0</v>
       </c>
-      <c r="X38">
-        <v>67</v>
+      <c r="X38" t="s">
+        <v>105</v>
       </c>
       <c r="Y38">
         <v>3</v>
@@ -3697,8 +3820,8 @@
       <c r="W39">
         <v>0</v>
       </c>
-      <c r="X39">
-        <v>254</v>
+      <c r="X39" t="s">
+        <v>106</v>
       </c>
       <c r="Y39">
         <v>7.5</v>
@@ -3777,8 +3900,8 @@
       <c r="W40">
         <v>4</v>
       </c>
-      <c r="X40">
-        <v>533</v>
+      <c r="X40" t="s">
+        <v>107</v>
       </c>
       <c r="Y40">
         <v>14.9</v>
@@ -3857,8 +3980,8 @@
       <c r="W41">
         <v>1</v>
       </c>
-      <c r="X41">
-        <v>874</v>
+      <c r="X41" t="s">
+        <v>108</v>
       </c>
       <c r="Y41">
         <v>23</v>
@@ -3937,8 +4060,8 @@
       <c r="W42">
         <v>9</v>
       </c>
-      <c r="X42">
-        <v>660</v>
+      <c r="X42" t="s">
+        <v>109</v>
       </c>
       <c r="Y42">
         <v>18.9</v>
@@ -4017,8 +4140,8 @@
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43">
-        <v>4</v>
+      <c r="X43" t="s">
+        <v>110</v>
       </c>
       <c r="Y43">
         <v>1</v>
